--- a/extraData/stack.xlsx
+++ b/extraData/stack.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="10140" windowHeight="8130"/>
+    <workbookView windowWidth="20385" windowHeight="8550"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76">
   <si>
     <t>MID_ADD,</t>
   </si>
@@ -64,9 +64,6 @@
   </si>
   <si>
     <t>assign</t>
-  </si>
-  <si>
-    <t>赋值的时候有可能是常量赋值给变量</t>
   </si>
   <si>
     <t>ret addr</t>
@@ -277,10 +274,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -294,8 +291,16 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -310,16 +315,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -331,6 +337,65 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -339,30 +404,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -376,6 +420,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -383,67 +441,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="40">
     <fill>
@@ -496,187 +493,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -851,6 +848,36 @@
       <top/>
       <bottom style="medium">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -879,65 +906,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -952,150 +920,179 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="36" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1568,8 +1565,8 @@
   <sheetPr/>
   <dimension ref="B1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:B19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15"/>
@@ -1677,22 +1674,20 @@
       <c r="H6" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="I6" s="25" t="s">
-        <v>16</v>
-      </c>
+      <c r="I6" s="25"/>
     </row>
     <row r="7" spans="2:8">
       <c r="B7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="E7" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="F7" s="22" t="s">
         <v>19</v>
-      </c>
-      <c r="F7" s="22" t="s">
-        <v>20</v>
       </c>
       <c r="G7" s="22"/>
       <c r="H7" s="23" t="s">
@@ -1701,13 +1696,13 @@
     </row>
     <row r="8" ht="15.75" spans="2:8">
       <c r="B8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="E8" s="21" t="s">
         <v>22</v>
-      </c>
-      <c r="E8" s="21" t="s">
-        <v>23</v>
       </c>
       <c r="F8" s="22" t="s">
         <v>2</v>
@@ -1719,14 +1714,14 @@
     </row>
     <row r="9" ht="15.75" spans="2:9">
       <c r="B9" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="24" t="s">
         <v>25</v>
-      </c>
-      <c r="E9" s="24" t="s">
-        <v>26</v>
       </c>
       <c r="F9" s="14" t="s">
         <v>2</v>
@@ -1738,18 +1733,18 @@
         <v>4</v>
       </c>
       <c r="I9" s="25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" ht="15.75" spans="2:8">
       <c r="B10" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="E10" s="18" t="s">
         <v>29</v>
-      </c>
-      <c r="E10" s="18" t="s">
-        <v>30</v>
       </c>
       <c r="F10" s="19" t="s">
         <v>2</v>
@@ -1763,30 +1758,30 @@
     </row>
     <row r="11" ht="15.75" spans="2:8">
       <c r="B11" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="E11" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="F11" t="s">
         <v>33</v>
       </c>
-      <c r="F11" t="s">
+      <c r="H11" s="17" t="s">
         <v>34</v>
-      </c>
-      <c r="H11" s="17" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="12" spans="2:8">
       <c r="B12" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="E12" s="13" t="s">
         <v>37</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>38</v>
       </c>
       <c r="F12" s="14" t="s">
         <v>2</v>
@@ -1795,18 +1790,18 @@
         <v>3</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="2:8">
       <c r="B13" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="E13" s="16" t="s">
         <v>41</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>42</v>
       </c>
       <c r="F13" t="s">
         <v>2</v>
@@ -1815,18 +1810,18 @@
         <v>3</v>
       </c>
       <c r="H13" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="2:8">
       <c r="B14" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="E14" s="16" t="s">
         <v>44</v>
-      </c>
-      <c r="E14" s="16" t="s">
-        <v>45</v>
       </c>
       <c r="F14" t="s">
         <v>2</v>
@@ -1835,18 +1830,18 @@
         <v>3</v>
       </c>
       <c r="H14" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="2:8">
       <c r="B15" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="E15" s="16" t="s">
         <v>47</v>
-      </c>
-      <c r="E15" s="16" t="s">
-        <v>48</v>
       </c>
       <c r="F15" t="s">
         <v>2</v>
@@ -1855,16 +1850,16 @@
         <v>3</v>
       </c>
       <c r="H15" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="2:8">
       <c r="B16" s="11"/>
       <c r="D16" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" s="16" t="s">
         <v>49</v>
-      </c>
-      <c r="E16" s="16" t="s">
-        <v>50</v>
       </c>
       <c r="F16" t="s">
         <v>2</v>
@@ -1873,16 +1868,16 @@
         <v>3</v>
       </c>
       <c r="H16" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" ht="15.75" spans="2:8">
       <c r="B17" s="11"/>
       <c r="D17" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" s="18" t="s">
         <v>51</v>
-      </c>
-      <c r="E17" s="18" t="s">
-        <v>52</v>
       </c>
       <c r="F17" s="19" t="s">
         <v>2</v>
@@ -1891,53 +1886,53 @@
         <v>3</v>
       </c>
       <c r="H17" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="2:8">
       <c r="B18" s="11"/>
       <c r="D18" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E18" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="F18" t="s">
         <v>54</v>
-      </c>
-      <c r="F18" t="s">
-        <v>55</v>
       </c>
       <c r="H18" s="17"/>
     </row>
     <row r="19" spans="2:8">
       <c r="B19" s="11"/>
       <c r="D19" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F19" t="s">
         <v>56</v>
-      </c>
-      <c r="E19" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="F19" t="s">
-        <v>57</v>
       </c>
       <c r="H19" s="17"/>
     </row>
     <row r="20" ht="15.75" spans="4:8">
       <c r="D20" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E20" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="E20" s="16" t="s">
-        <v>59</v>
-      </c>
       <c r="F20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H20" s="17"/>
     </row>
     <row r="21" spans="4:8">
       <c r="D21" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E21" s="13" t="s">
         <v>60</v>
-      </c>
-      <c r="E21" s="13" t="s">
-        <v>61</v>
       </c>
       <c r="F21" s="14" t="s">
         <v>4</v>
@@ -1947,10 +1942,10 @@
     </row>
     <row r="22" spans="4:8">
       <c r="D22" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E22" s="16" t="s">
         <v>62</v>
-      </c>
-      <c r="E22" s="16" t="s">
-        <v>63</v>
       </c>
       <c r="F22" t="s">
         <v>4</v>
@@ -1959,10 +1954,10 @@
     </row>
     <row r="23" ht="15.75" spans="4:8">
       <c r="D23" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E23" s="18" t="s">
         <v>64</v>
-      </c>
-      <c r="E23" s="18" t="s">
-        <v>65</v>
       </c>
       <c r="F23" s="19" t="s">
         <v>4</v>
@@ -1972,10 +1967,10 @@
     </row>
     <row r="24" spans="4:8">
       <c r="D24" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E24" s="16" t="s">
         <v>66</v>
-      </c>
-      <c r="E24" s="16" t="s">
-        <v>67</v>
       </c>
       <c r="F24" t="s">
         <v>4</v>
@@ -1984,10 +1979,10 @@
     </row>
     <row r="25" ht="15.75" spans="4:8">
       <c r="D25" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E25" s="18" t="s">
         <v>68</v>
-      </c>
-      <c r="E25" s="18" t="s">
-        <v>69</v>
       </c>
       <c r="F25" s="19" t="s">
         <v>4</v>
@@ -1997,34 +1992,34 @@
     </row>
     <row r="26" spans="4:8">
       <c r="D26" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E26" s="16" t="s">
         <v>70</v>
-      </c>
-      <c r="E26" s="16" t="s">
-        <v>71</v>
       </c>
       <c r="H26" s="17"/>
     </row>
     <row r="27" spans="4:8">
       <c r="D27" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E27" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="E27" s="16" t="s">
+      <c r="F27" t="s">
         <v>73</v>
-      </c>
-      <c r="F27" t="s">
-        <v>74</v>
       </c>
       <c r="H27" s="17"/>
     </row>
     <row r="28" ht="15.75" spans="4:8">
       <c r="D28" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E28" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="E28" s="18" t="s">
-        <v>76</v>
-      </c>
       <c r="F28" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G28" s="19"/>
       <c r="H28" s="20"/>
